--- a/workingPLC/无锡无心磨床设计说明.xlsx
+++ b/workingPLC/无锡无心磨床设计说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20064" windowHeight="9455"/>
+    <workbookView windowWidth="18491" windowHeight="9455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IO诊断" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686">
   <si>
     <t>X0.0</t>
   </si>
@@ -1814,60 +1814,168 @@
     <t>R300.3(LOCK)</t>
   </si>
   <si>
+    <t>R3.0</t>
+  </si>
+  <si>
+    <t>R3.4</t>
+  </si>
+  <si>
+    <t>FirstRnd</t>
+  </si>
+  <si>
+    <t>R3.1</t>
+  </si>
+  <si>
+    <t>R3.5</t>
+  </si>
+  <si>
+    <t>1#激活</t>
+  </si>
+  <si>
+    <t>R150.0</t>
+  </si>
+  <si>
+    <t>1#可执行</t>
+  </si>
+  <si>
+    <t>1#正磨料</t>
+  </si>
+  <si>
+    <t>1#去磨料</t>
+  </si>
+  <si>
+    <t>1#去取料</t>
+  </si>
+  <si>
+    <t>1#已回零</t>
+  </si>
+  <si>
+    <t>1#已回开</t>
+  </si>
+  <si>
+    <t>1#去待机</t>
+  </si>
+  <si>
+    <t>1#去原点</t>
+  </si>
+  <si>
     <t>R151.0</t>
   </si>
   <si>
     <t>R171.0</t>
   </si>
   <si>
+    <t>1#运到位</t>
+  </si>
+  <si>
     <t>R151.1</t>
   </si>
   <si>
     <t>R171.1</t>
   </si>
   <si>
+    <t>1#回到位</t>
+  </si>
+  <si>
     <t>R151.2</t>
   </si>
   <si>
     <t>R171.2</t>
   </si>
   <si>
+    <t>1#磨到位</t>
+  </si>
+  <si>
     <t>R151.3</t>
   </si>
   <si>
     <t>R171.3</t>
   </si>
   <si>
+    <t>1#取到位</t>
+  </si>
+  <si>
     <t>R151.4</t>
   </si>
   <si>
     <t>R171.4</t>
   </si>
   <si>
+    <t>1#等到位</t>
+  </si>
+  <si>
+    <t>1#磨忙开</t>
+  </si>
+  <si>
+    <t>1#磨忙关</t>
+  </si>
+  <si>
+    <t>1#Y上开</t>
+  </si>
+  <si>
+    <t>1#Y上关</t>
+  </si>
+  <si>
+    <t>1#Y下开</t>
+  </si>
+  <si>
+    <t>1#Y下关</t>
+  </si>
+  <si>
+    <t>1#回零动</t>
+  </si>
+  <si>
+    <t>1Y回零上</t>
+  </si>
+  <si>
+    <t>1Y自动上</t>
+  </si>
+  <si>
+    <t>1#料前进</t>
+  </si>
+  <si>
+    <t>1#料后退</t>
+  </si>
+  <si>
+    <t>R310.0</t>
+  </si>
+  <si>
+    <t>1#默认</t>
+  </si>
+  <si>
+    <t>R310.1</t>
+  </si>
+  <si>
+    <t>1#初始</t>
+  </si>
+  <si>
+    <t>R310.2</t>
+  </si>
+  <si>
+    <t>1#上到位</t>
+  </si>
+  <si>
+    <t>R310.3</t>
+  </si>
+  <si>
     <t>1#机械手刹车</t>
   </si>
   <si>
+    <t>R310.4</t>
+  </si>
+  <si>
+    <t>1#下到位</t>
+  </si>
+  <si>
     <t>2#机械手刹车</t>
   </si>
   <si>
-    <t>R310.0</t>
-  </si>
-  <si>
-    <t>R310.1</t>
-  </si>
-  <si>
-    <t>R310.2</t>
-  </si>
-  <si>
-    <t>R310.3</t>
-  </si>
-  <si>
-    <t>R310.4</t>
-  </si>
-  <si>
     <t>R310.5</t>
   </si>
   <si>
+    <t>1#料到前</t>
+  </si>
+  <si>
     <t>R310.6</t>
   </si>
   <si>
@@ -1886,6 +1994,9 @@
     <t>R311.3</t>
   </si>
   <si>
+    <t>1#磨完成</t>
+  </si>
+  <si>
     <t>R311.4</t>
   </si>
   <si>
@@ -1898,24 +2009,45 @@
     <t>R311.6</t>
   </si>
   <si>
+    <t>1#料到后</t>
+  </si>
+  <si>
     <t>R311.7</t>
   </si>
   <si>
+    <t>1#启动</t>
+  </si>
+  <si>
     <t>R312.0</t>
   </si>
   <si>
+    <t>1#等M10</t>
+  </si>
+  <si>
     <t>R312.1</t>
   </si>
   <si>
+    <t>1#在原点</t>
+  </si>
+  <si>
     <t>R312.2</t>
   </si>
   <si>
+    <t>1#紧停</t>
+  </si>
+  <si>
     <t>R312.3</t>
   </si>
   <si>
+    <t>1#程停回</t>
+  </si>
+  <si>
     <t>R312.4</t>
   </si>
   <si>
+    <t>1#工停回</t>
+  </si>
+  <si>
     <t>R312.5</t>
   </si>
   <si>
@@ -1925,6 +2057,9 @@
     <t>R312.6</t>
   </si>
   <si>
+    <t>未定义</t>
+  </si>
+  <si>
     <t>R302.7</t>
   </si>
   <si>
@@ -1937,24 +2072,36 @@
     <t>R314.7</t>
   </si>
   <si>
+    <t>1#上电时</t>
+  </si>
+  <si>
     <t>R305.0</t>
   </si>
   <si>
     <t>R315.0</t>
   </si>
   <si>
+    <t>1#回零初</t>
+  </si>
+  <si>
     <t>R305.1</t>
   </si>
   <si>
     <t>R315.1</t>
   </si>
   <si>
+    <t>1#回零1</t>
+  </si>
+  <si>
     <t>R305.2</t>
   </si>
   <si>
     <t>R315.2</t>
   </si>
   <si>
+    <t>1#回零2</t>
+  </si>
+  <si>
     <t>R305.3</t>
   </si>
   <si>
@@ -1967,6 +2114,9 @@
     <t>R315.4</t>
   </si>
   <si>
+    <t>1#回紧停</t>
+  </si>
+  <si>
     <t>R305.5</t>
   </si>
   <si>
@@ -1983,6 +2133,78 @@
   </si>
   <si>
     <t>R315.7</t>
+  </si>
+  <si>
+    <t>R500.0</t>
+  </si>
+  <si>
+    <t>R502.0</t>
+  </si>
+  <si>
+    <t>1#机械进</t>
+  </si>
+  <si>
+    <t>R501.0</t>
+  </si>
+  <si>
+    <t>R503.0</t>
+  </si>
+  <si>
+    <t>1#机械退</t>
+  </si>
+  <si>
+    <t>1#送料前</t>
+  </si>
+  <si>
+    <t>1#原点</t>
+  </si>
+  <si>
+    <t>1#送料后</t>
+  </si>
+  <si>
+    <t>1#机械下</t>
+  </si>
+  <si>
+    <t>1#送料</t>
+  </si>
+  <si>
+    <t>1#能使</t>
+  </si>
+  <si>
+    <t>1#Pos1</t>
+  </si>
+  <si>
+    <t>1#Pos2</t>
+  </si>
+  <si>
+    <t>R500</t>
+  </si>
+  <si>
+    <t>R502</t>
+  </si>
+  <si>
+    <t>1#手动进</t>
+  </si>
+  <si>
+    <t>R501</t>
+  </si>
+  <si>
+    <t>R503</t>
+  </si>
+  <si>
+    <t>1#手动退</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>D210</t>
+  </si>
+  <si>
+    <t>D111</t>
+  </si>
+  <si>
+    <t>D211</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2217,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2005,12 +2227,6 @@
     <font>
       <sz val="11"/>
       <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2033,34 +2249,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2074,12 +2277,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2087,7 +2284,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2100,14 +2304,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2170,7 +2386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,19 +2410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,31 +2428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,6 +2559,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -2358,11 +2583,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2378,16 +2618,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="63"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="63"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -2417,30 +2657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2454,142 +2670,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2600,12 +2816,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2621,31 +2837,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2657,19 +2876,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2690,22 +2909,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -2714,13 +2930,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2734,36 +2950,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="8"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="9"/>
-    <cellStyle name="输入" xfId="10"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="输入" xfId="11"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="12"/>
-    <cellStyle name="强调文字颜色 1" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="14"/>
-    <cellStyle name="强调文字颜色 2" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="13"/>
+    <cellStyle name="强调文字颜色 1" xfId="14"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="15"/>
     <cellStyle name="链接单元格" xfId="16"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="17"/>
+    <cellStyle name="强调文字颜色 2" xfId="17"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="18"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="19"/>
-    <cellStyle name="差" xfId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="20"/>
+    <cellStyle name="差" xfId="21"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="22"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="23"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="标题 3" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="27"/>
     <cellStyle name="标题 4" xfId="28"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="29"/>
+    <cellStyle name="警告文本" xfId="29"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="30"/>
-    <cellStyle name="输出" xfId="31"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="31"/>
+    <cellStyle name="输出" xfId="32"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="33"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="34"/>
     <cellStyle name="标题 1" xfId="35"/>
@@ -3113,7 +3329,7 @@
   <sheetPr/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4138,8 +4354,8 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4161,20 +4377,20 @@
       <c r="B1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>267</v>
       </c>
       <c r="H1" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4191,22 +4407,22 @@
       <c r="D2" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4226,13 +4442,13 @@
       <c r="H3" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" ht="28.8" spans="1:12">
       <c r="A4" t="s">
@@ -4247,28 +4463,28 @@
       <c r="D4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>289</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" ht="28.8" spans="1:12">
       <c r="A5" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C5" t="s">
@@ -4278,19 +4494,19 @@
         <v>296</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>297</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -4306,17 +4522,17 @@
         <v>304</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>305</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="L6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -4332,43 +4548,43 @@
         <v>311</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>312</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="30" t="s">
         <v>315</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="L8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" ht="28.8" spans="6:12">
       <c r="F9" s="5"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="29" t="s">
         <v>317</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>318</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -4384,13 +4600,13 @@
       <c r="H10" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -4461,10 +4677,10 @@
       <c r="K13" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="26" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4527,10 +4743,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
       <c r="F16" s="5">
         <v>3</v>
       </c>
@@ -4577,162 +4793,162 @@
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="30" t="s">
         <v>358</v>
       </c>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="34" t="s">
@@ -5083,7 +5299,7 @@
       <c r="F50" t="s">
         <v>425</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="23" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5097,7 +5313,7 @@
       <c r="F51" t="s">
         <v>429</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="23" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5187,7 +5403,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5201,7 +5417,7 @@
       <c r="A1" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5215,16 +5431,16 @@
       <c r="E2" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5235,18 +5451,18 @@
       <c r="B3" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="4" spans="8:10">
-      <c r="H4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4" t="s">
         <v>461</v>
       </c>
@@ -5255,31 +5471,31 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>463</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>465</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="8:8">
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5294,7 +5510,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5302,489 +5518,489 @@
     <col min="1" max="12" width="10.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:12">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="10" customFormat="1" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:9">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:9">
+      <c r="A4" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:9">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="10" customFormat="1" spans="1:9">
+      <c r="A5" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:12">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="10" customFormat="1" spans="1:12">
+      <c r="A6" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:9">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:9">
+      <c r="A7" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="16.5" customHeight="1" spans="1:12">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="10" customFormat="1" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A8" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="13.5" customHeight="1" spans="3:9">
-      <c r="C9" s="11"/>
-      <c r="F9" s="9" t="s">
+    <row r="9" s="10" customFormat="1" ht="13.5" customHeight="1" spans="3:9">
+      <c r="C9" s="12"/>
+      <c r="F9" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:9">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:9">
+      <c r="A10" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:9">
+      <c r="A11" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:9">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="10" customFormat="1" spans="1:9">
+      <c r="A12" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="6:9">
-      <c r="F13" s="9" t="s">
+    <row r="13" s="10" customFormat="1" spans="6:9">
+      <c r="F13" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:9">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="10" customFormat="1" spans="1:9">
+      <c r="A14" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" spans="1:6">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="10" customFormat="1" spans="1:6">
+      <c r="A15" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:9">
-      <c r="A16" s="9" t="s">
+    <row r="16" s="10" customFormat="1" spans="1:9">
+      <c r="A16" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:9">
-      <c r="A17" s="9" t="s">
+    <row r="17" s="10" customFormat="1" spans="1:9">
+      <c r="A17" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A18" s="9" t="s">
+    <row r="18" s="10" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A18" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="20"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5850,46 +6066,46 @@
       <c r="B30" t="s">
         <v>551</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>552</v>
       </c>
       <c r="F30" t="s">
         <v>488</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="14" t="s">
         <v>517</v>
       </c>
       <c r="N30" t="s">
         <v>488</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="14" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5897,26 +6113,26 @@
       <c r="B31" t="s">
         <v>553</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>552</v>
       </c>
       <c r="F31" t="s">
         <v>554</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" t="s">
         <v>554</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
@@ -5925,37 +6141,37 @@
       <c r="B32" t="s">
         <v>551</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>520</v>
       </c>
       <c r="F32" t="s">
         <v>491</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>553</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>520</v>
       </c>
       <c r="F33" t="s">
         <v>496</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="P33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -6029,816 +6245,1218 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" t="s">
+        <v>594</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" t="s">
+        <v>595</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" t="s">
+        <v>596</v>
+      </c>
+      <c r="C28" t="s">
+        <v>597</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" t="s">
+        <v>599</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" t="s">
+        <v>602</v>
+      </c>
+      <c r="C31" t="s">
+        <v>581</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" t="s">
+        <v>607</v>
+      </c>
+      <c r="C33" t="s">
+        <v>608</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>498</v>
+      </c>
+      <c r="B34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C34" t="s">
+        <v>601</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" t="s">
+        <v>610</v>
+      </c>
+      <c r="C35" t="s">
+        <v>584</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B36" t="s">
+        <v>611</v>
+      </c>
+      <c r="C36" t="s">
+        <v>584</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C38" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>514</v>
+      </c>
+      <c r="B39" t="s">
+        <v>614</v>
+      </c>
+      <c r="C39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" t="s">
+        <v>616</v>
+      </c>
+      <c r="C40" t="s">
+        <v>601</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" t="s">
+        <v>617</v>
+      </c>
+      <c r="C41" t="s">
+        <v>584</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" t="s">
+        <v>619</v>
+      </c>
+      <c r="C42" t="s">
+        <v>620</v>
+      </c>
+      <c r="H42" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>520</v>
+      </c>
+      <c r="B43" t="s">
+        <v>621</v>
+      </c>
+      <c r="C43" t="s">
+        <v>622</v>
+      </c>
+      <c r="H43" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" t="s">
+        <v>623</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>526</v>
+      </c>
+      <c r="B45" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45" t="s">
+        <v>626</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>529</v>
+      </c>
+      <c r="B46" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" t="s">
+        <v>628</v>
+      </c>
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>532</v>
+      </c>
+      <c r="B47" t="s">
+        <v>629</v>
+      </c>
+      <c r="C47" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>537</v>
+      </c>
+      <c r="B48" t="s">
+        <v>631</v>
+      </c>
+      <c r="C48" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49" t="s">
+        <v>633</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>634</v>
+      </c>
+      <c r="B50" t="s">
+        <v>635</v>
+      </c>
+      <c r="C50" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>637</v>
+      </c>
+      <c r="B51" t="s">
+        <v>638</v>
+      </c>
+      <c r="C51" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>639</v>
+      </c>
+      <c r="B52" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>642</v>
+      </c>
+      <c r="B53" t="s">
+        <v>643</v>
+      </c>
+      <c r="C53" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>648</v>
+      </c>
+      <c r="B55" t="s">
+        <v>649</v>
+      </c>
+      <c r="C55" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>651</v>
+      </c>
+      <c r="B56" t="s">
+        <v>652</v>
+      </c>
+      <c r="C56" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>653</v>
+      </c>
+      <c r="B57" t="s">
+        <v>654</v>
+      </c>
+      <c r="C57" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>656</v>
+      </c>
+      <c r="B58" t="s">
+        <v>657</v>
+      </c>
+      <c r="C58" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>658</v>
+      </c>
+      <c r="B59" t="s">
+        <v>659</v>
+      </c>
+      <c r="C59" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>660</v>
+      </c>
+      <c r="B60" t="s">
+        <v>661</v>
+      </c>
+      <c r="C60" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>662</v>
+      </c>
+      <c r="B61" t="s">
+        <v>663</v>
+      </c>
+      <c r="C61" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>665</v>
+      </c>
+      <c r="B62" t="s">
+        <v>666</v>
+      </c>
+      <c r="C62" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>676</v>
+      </c>
+      <c r="B81" t="s">
+        <v>677</v>
+      </c>
+      <c r="C81" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>679</v>
+      </c>
+      <c r="B82" t="s">
+        <v>680</v>
+      </c>
+      <c r="C82" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" t="s">
+        <v>381</v>
+      </c>
+      <c r="C83" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C84" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C85" t="s">
+        <v>575</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C86" t="s">
+        <v>578</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C87" t="s">
+        <v>581</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>432</v>
-      </c>
-      <c r="B24" t="s">
-        <v>434</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B25" t="s">
-        <v>438</v>
-      </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8">
-      <c r="G40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>475</v>
-      </c>
-      <c r="B41" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" t="s">
-        <v>195</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>478</v>
-      </c>
-      <c r="B42" t="s">
-        <v>568</v>
-      </c>
-      <c r="G42" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>484</v>
-      </c>
-      <c r="B43" t="s">
-        <v>569</v>
-      </c>
-      <c r="G43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>488</v>
-      </c>
-      <c r="B44" t="s">
-        <v>570</v>
-      </c>
-      <c r="G44" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>491</v>
-      </c>
-      <c r="B45" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>496</v>
-      </c>
-      <c r="B46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>498</v>
-      </c>
-      <c r="B47" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>504</v>
-      </c>
-      <c r="B48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>507</v>
-      </c>
-      <c r="B49" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>511</v>
-      </c>
-      <c r="B50" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>512</v>
-      </c>
-      <c r="B51" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>514</v>
-      </c>
-      <c r="B52" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>515</v>
-      </c>
-      <c r="B53" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>517</v>
-      </c>
-      <c r="B54" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>581</v>
-      </c>
-      <c r="B55" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>520</v>
-      </c>
-      <c r="B56" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>522</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C88" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>526</v>
-      </c>
-      <c r="B58" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>529</v>
-      </c>
-      <c r="B59" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>532</v>
-      </c>
-      <c r="B60" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>537</v>
-      </c>
-      <c r="B61" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>539</v>
-      </c>
-      <c r="B62" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>590</v>
-      </c>
-      <c r="B63" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>592</v>
-      </c>
-      <c r="B64" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>594</v>
-      </c>
-      <c r="B65" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>596</v>
-      </c>
-      <c r="B66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>598</v>
-      </c>
-      <c r="B67" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>600</v>
-      </c>
-      <c r="B68" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>602</v>
-      </c>
-      <c r="B69" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>604</v>
-      </c>
-      <c r="B70" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>606</v>
-      </c>
-      <c r="B71" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>608</v>
-      </c>
-      <c r="B72" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>610</v>
-      </c>
-      <c r="B73" t="s">
-        <v>611</v>
+      <c r="F88" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>682</v>
+      </c>
+      <c r="B89" t="s">
+        <v>683</v>
+      </c>
+      <c r="C89" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>684</v>
+      </c>
+      <c r="B90" t="s">
+        <v>685</v>
+      </c>
+      <c r="C90" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
